--- a/biology/Médecine/Jean_Joseph_Labâte/Jean_Joseph_Labâte.xlsx
+++ b/biology/Médecine/Jean_Joseph_Labâte/Jean_Joseph_Labâte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean_Joseph_Lab%C3%A2te</t>
+          <t>Jean_Joseph_Labâte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Joseph Labâte, né le 13 juin 1766 à Saint-Poix[1] (Mayenne), et mort en avril 1835[2], est un médecin français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Joseph Labâte, né le 13 juin 1766 à Saint-Poix (Mayenne), et mort en avril 1835, est un médecin français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean_Joseph_Lab%C3%A2te</t>
+          <t>Jean_Joseph_Labâte</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il commença ses études à Craon puis à l'université d'Angers. Admis en qualité de chirurgien aux Invalides en 1789, il est ensuite envoyé aux armées avant de revenir aux Invalides[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il commença ses études à Craon puis à l'université d'Angers. Admis en qualité de chirurgien aux Invalides en 1789, il est ensuite envoyé aux armées avant de revenir aux Invalides.
 Il fait partie de l'expédition d’Égypte.
-Il fait partie de la commission Costaz, qui part du Caire le 14 août 1799 pour achever l'exploration de la Haute-Égypte[4].
+Il fait partie de la commission Costaz, qui part du Caire le 14 août 1799 pour achever l'exploration de la Haute-Égypte.
 Il est ensuite nommé, le 24 septembre 1803, proviseur de l'école des arts et métiers, d'abord installée au château de Compiègne, qu'il a l'ordre de transférer en 1806 à Châlons-sur-Marne, où elle est aujourd'hui l'un des huit campus d'Arts et Métiers ParisTech. Il occupe ces fonctions jusqu'en 1823.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean_Joseph_Lab%C3%A2te</t>
+          <t>Jean_Joseph_Labâte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est nommé chevalier de la Légion d'honneur en 1814[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est nommé chevalier de la Légion d'honneur en 1814.
 </t>
         </is>
       </c>
